--- a/public/template/excel/template_form_disposisi.xlsx
+++ b/public/template/excel/template_form_disposisi.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp-81\htdocs\App-Sipas\public\template\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\xampp\htdocs\Sipas-Management\public\template\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FF72CD-7EF6-4DFB-9613-E9487C82CC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -342,7 +341,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -665,7 +664,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -754,89 +753,22 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -844,6 +776,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -937,23 +937,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -989,23 +972,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1181,14 +1147,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:S58"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1222,50 +1188,50 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="39" x14ac:dyDescent="0.6">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="70"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="62"/>
     </row>
     <row r="4" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="48"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="71"/>
+      <c r="S4" s="72"/>
     </row>
     <row r="5" spans="1:19" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
@@ -1532,31 +1498,31 @@
       <c r="S14" s="5"/>
     </row>
     <row r="15" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="71" t="s">
+      <c r="A15" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="71" t="s">
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="M15" s="72"/>
-      <c r="N15" s="72"/>
-      <c r="O15" s="72"/>
-      <c r="P15" s="72"/>
-      <c r="Q15" s="73"/>
-      <c r="R15" s="71" t="s">
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="65"/>
+      <c r="R15" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="S15" s="73"/>
+      <c r="S15" s="65"/>
     </row>
     <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
@@ -1798,7 +1764,7 @@
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="29"/>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="84" t="s">
         <v>103</v>
       </c>
       <c r="H25" s="4"/>
@@ -2260,25 +2226,25 @@
     </row>
     <row r="44" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
-      <c r="B44" s="74" t="s">
+      <c r="B44" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="C44" s="75"/>
-      <c r="D44" s="75"/>
-      <c r="E44" s="75"/>
-      <c r="F44" s="75"/>
-      <c r="G44" s="75"/>
-      <c r="H44" s="75"/>
-      <c r="I44" s="75"/>
-      <c r="J44" s="75"/>
-      <c r="K44" s="75"/>
-      <c r="L44" s="75"/>
-      <c r="M44" s="75"/>
-      <c r="N44" s="75"/>
-      <c r="O44" s="75"/>
-      <c r="P44" s="75"/>
-      <c r="Q44" s="75"/>
-      <c r="R44" s="76"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="67"/>
+      <c r="I44" s="67"/>
+      <c r="J44" s="67"/>
+      <c r="K44" s="67"/>
+      <c r="L44" s="67"/>
+      <c r="M44" s="67"/>
+      <c r="N44" s="67"/>
+      <c r="O44" s="67"/>
+      <c r="P44" s="67"/>
+      <c r="Q44" s="67"/>
+      <c r="R44" s="68"/>
       <c r="S44" s="5"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
@@ -2286,300 +2252,300 @@
       <c r="B45" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C45" s="44" t="s">
+      <c r="C45" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="44"/>
-      <c r="I45" s="44" t="s">
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="J45" s="44"/>
-      <c r="K45" s="44"/>
-      <c r="L45" s="44"/>
-      <c r="M45" s="44"/>
-      <c r="N45" s="44"/>
-      <c r="O45" s="45" t="s">
+      <c r="J45" s="48"/>
+      <c r="K45" s="48"/>
+      <c r="L45" s="48"/>
+      <c r="M45" s="48"/>
+      <c r="N45" s="48"/>
+      <c r="O45" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="P45" s="45"/>
-      <c r="Q45" s="45"/>
-      <c r="R45" s="45"/>
+      <c r="P45" s="69"/>
+      <c r="Q45" s="69"/>
+      <c r="R45" s="69"/>
       <c r="S45" s="5"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
-      <c r="B46" s="51" t="s">
+      <c r="B46" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="C46" s="52" t="s">
+      <c r="C46" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="D46" s="53"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="53"/>
-      <c r="H46" s="53"/>
-      <c r="I46" s="56"/>
-      <c r="J46" s="56"/>
-      <c r="K46" s="56"/>
-      <c r="L46" s="56"/>
-      <c r="M46" s="56"/>
-      <c r="N46" s="56"/>
-      <c r="O46" s="61"/>
-      <c r="P46" s="61"/>
-      <c r="Q46" s="61"/>
-      <c r="R46" s="61"/>
+      <c r="D46" s="74"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="74"/>
+      <c r="G46" s="74"/>
+      <c r="H46" s="74"/>
+      <c r="I46" s="59"/>
+      <c r="J46" s="59"/>
+      <c r="K46" s="59"/>
+      <c r="L46" s="59"/>
+      <c r="M46" s="59"/>
+      <c r="N46" s="59"/>
+      <c r="O46" s="44"/>
+      <c r="P46" s="44"/>
+      <c r="Q46" s="44"/>
+      <c r="R46" s="44"/>
       <c r="S46" s="5"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
-      <c r="B47" s="49"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="55"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="55"/>
-      <c r="H47" s="55"/>
-      <c r="I47" s="56"/>
-      <c r="J47" s="56"/>
-      <c r="K47" s="56"/>
-      <c r="L47" s="56"/>
-      <c r="M47" s="56"/>
-      <c r="N47" s="56"/>
-      <c r="O47" s="61"/>
-      <c r="P47" s="61"/>
-      <c r="Q47" s="61"/>
-      <c r="R47" s="61"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="75"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="76"/>
+      <c r="F47" s="76"/>
+      <c r="G47" s="76"/>
+      <c r="H47" s="76"/>
+      <c r="I47" s="59"/>
+      <c r="J47" s="59"/>
+      <c r="K47" s="59"/>
+      <c r="L47" s="59"/>
+      <c r="M47" s="59"/>
+      <c r="N47" s="59"/>
+      <c r="O47" s="44"/>
+      <c r="P47" s="44"/>
+      <c r="Q47" s="44"/>
+      <c r="R47" s="44"/>
       <c r="S47" s="26"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
-      <c r="B48" s="51" t="s">
+      <c r="B48" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="C48" s="52" t="s">
+      <c r="C48" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="D48" s="53"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="53"/>
-      <c r="G48" s="53"/>
-      <c r="H48" s="57"/>
-      <c r="I48" s="56"/>
-      <c r="J48" s="56"/>
-      <c r="K48" s="56"/>
-      <c r="L48" s="56"/>
-      <c r="M48" s="56"/>
-      <c r="N48" s="56"/>
-      <c r="O48" s="62"/>
-      <c r="P48" s="63"/>
-      <c r="Q48" s="63"/>
-      <c r="R48" s="64"/>
+      <c r="D48" s="74"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="74"/>
+      <c r="G48" s="74"/>
+      <c r="H48" s="77"/>
+      <c r="I48" s="59"/>
+      <c r="J48" s="59"/>
+      <c r="K48" s="59"/>
+      <c r="L48" s="59"/>
+      <c r="M48" s="59"/>
+      <c r="N48" s="59"/>
+      <c r="O48" s="49"/>
+      <c r="P48" s="50"/>
+      <c r="Q48" s="50"/>
+      <c r="R48" s="51"/>
       <c r="S48" s="26"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
-      <c r="B49" s="51"/>
-      <c r="C49" s="58"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="59"/>
-      <c r="H49" s="60"/>
-      <c r="I49" s="56"/>
-      <c r="J49" s="56"/>
-      <c r="K49" s="56"/>
-      <c r="L49" s="56"/>
-      <c r="M49" s="56"/>
-      <c r="N49" s="56"/>
-      <c r="O49" s="65"/>
-      <c r="P49" s="66"/>
-      <c r="Q49" s="66"/>
-      <c r="R49" s="67"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="78"/>
+      <c r="D49" s="79"/>
+      <c r="E49" s="79"/>
+      <c r="F49" s="79"/>
+      <c r="G49" s="79"/>
+      <c r="H49" s="80"/>
+      <c r="I49" s="59"/>
+      <c r="J49" s="59"/>
+      <c r="K49" s="59"/>
+      <c r="L49" s="59"/>
+      <c r="M49" s="59"/>
+      <c r="N49" s="59"/>
+      <c r="O49" s="81"/>
+      <c r="P49" s="82"/>
+      <c r="Q49" s="82"/>
+      <c r="R49" s="83"/>
       <c r="S49" s="26"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
-      <c r="B50" s="49" t="s">
+      <c r="B50" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="C50" s="52" t="s">
+      <c r="C50" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="D50" s="53"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="53"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="57"/>
-      <c r="I50" s="56"/>
-      <c r="J50" s="56"/>
-      <c r="K50" s="56"/>
-      <c r="L50" s="56"/>
-      <c r="M50" s="56"/>
-      <c r="N50" s="56"/>
-      <c r="O50" s="61"/>
-      <c r="P50" s="61"/>
-      <c r="Q50" s="61"/>
-      <c r="R50" s="61"/>
+      <c r="D50" s="74"/>
+      <c r="E50" s="74"/>
+      <c r="F50" s="74"/>
+      <c r="G50" s="74"/>
+      <c r="H50" s="77"/>
+      <c r="I50" s="59"/>
+      <c r="J50" s="59"/>
+      <c r="K50" s="59"/>
+      <c r="L50" s="59"/>
+      <c r="M50" s="59"/>
+      <c r="N50" s="59"/>
+      <c r="O50" s="44"/>
+      <c r="P50" s="44"/>
+      <c r="Q50" s="44"/>
+      <c r="R50" s="44"/>
       <c r="S50" s="26"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
-      <c r="B51" s="50"/>
-      <c r="C51" s="58"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="59"/>
-      <c r="H51" s="60"/>
-      <c r="I51" s="56"/>
-      <c r="J51" s="56"/>
-      <c r="K51" s="56"/>
-      <c r="L51" s="56"/>
-      <c r="M51" s="56"/>
-      <c r="N51" s="56"/>
-      <c r="O51" s="61"/>
-      <c r="P51" s="61"/>
-      <c r="Q51" s="61"/>
-      <c r="R51" s="61"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="78"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="79"/>
+      <c r="F51" s="79"/>
+      <c r="G51" s="79"/>
+      <c r="H51" s="80"/>
+      <c r="I51" s="59"/>
+      <c r="J51" s="59"/>
+      <c r="K51" s="59"/>
+      <c r="L51" s="59"/>
+      <c r="M51" s="59"/>
+      <c r="N51" s="59"/>
+      <c r="O51" s="44"/>
+      <c r="P51" s="44"/>
+      <c r="Q51" s="44"/>
+      <c r="R51" s="44"/>
       <c r="S51" s="26"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="27"/>
-      <c r="C52" s="44" t="s">
+      <c r="C52" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="D52" s="44"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="44"/>
-      <c r="G52" s="44"/>
-      <c r="H52" s="44"/>
-      <c r="I52" s="44"/>
-      <c r="J52" s="44"/>
-      <c r="K52" s="44"/>
-      <c r="L52" s="44"/>
-      <c r="M52" s="44"/>
-      <c r="N52" s="44"/>
-      <c r="O52" s="61"/>
-      <c r="P52" s="61"/>
-      <c r="Q52" s="61"/>
-      <c r="R52" s="61"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="48"/>
+      <c r="I52" s="48"/>
+      <c r="J52" s="48"/>
+      <c r="K52" s="48"/>
+      <c r="L52" s="48"/>
+      <c r="M52" s="48"/>
+      <c r="N52" s="48"/>
+      <c r="O52" s="44"/>
+      <c r="P52" s="44"/>
+      <c r="Q52" s="44"/>
+      <c r="R52" s="44"/>
       <c r="S52" s="26"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
-      <c r="B53" s="51" t="s">
+      <c r="B53" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="C53" s="61"/>
-      <c r="D53" s="61"/>
-      <c r="E53" s="61"/>
-      <c r="F53" s="61"/>
-      <c r="G53" s="61"/>
-      <c r="H53" s="61"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="56"/>
-      <c r="K53" s="56"/>
-      <c r="L53" s="56"/>
-      <c r="M53" s="56"/>
-      <c r="N53" s="56"/>
-      <c r="O53" s="61"/>
-      <c r="P53" s="61"/>
-      <c r="Q53" s="61"/>
-      <c r="R53" s="61"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="44"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="59"/>
+      <c r="J53" s="59"/>
+      <c r="K53" s="59"/>
+      <c r="L53" s="59"/>
+      <c r="M53" s="59"/>
+      <c r="N53" s="59"/>
+      <c r="O53" s="44"/>
+      <c r="P53" s="44"/>
+      <c r="Q53" s="44"/>
+      <c r="R53" s="44"/>
       <c r="S53" s="26"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
-      <c r="B54" s="51"/>
-      <c r="C54" s="61"/>
-      <c r="D54" s="61"/>
-      <c r="E54" s="61"/>
-      <c r="F54" s="61"/>
-      <c r="G54" s="61"/>
-      <c r="H54" s="61"/>
-      <c r="I54" s="56"/>
-      <c r="J54" s="56"/>
-      <c r="K54" s="56"/>
-      <c r="L54" s="56"/>
-      <c r="M54" s="56"/>
-      <c r="N54" s="56"/>
-      <c r="O54" s="61"/>
-      <c r="P54" s="61"/>
-      <c r="Q54" s="61"/>
-      <c r="R54" s="61"/>
+      <c r="B54" s="47"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="44"/>
+      <c r="G54" s="44"/>
+      <c r="H54" s="44"/>
+      <c r="I54" s="59"/>
+      <c r="J54" s="59"/>
+      <c r="K54" s="59"/>
+      <c r="L54" s="59"/>
+      <c r="M54" s="59"/>
+      <c r="N54" s="59"/>
+      <c r="O54" s="44"/>
+      <c r="P54" s="44"/>
+      <c r="Q54" s="44"/>
+      <c r="R54" s="44"/>
       <c r="S54" s="26"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="25"/>
       <c r="B55" s="28"/>
-      <c r="C55" s="44" t="s">
+      <c r="C55" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="D55" s="44"/>
-      <c r="E55" s="44"/>
-      <c r="F55" s="44"/>
-      <c r="G55" s="44"/>
-      <c r="H55" s="44"/>
-      <c r="I55" s="44"/>
-      <c r="J55" s="44"/>
-      <c r="K55" s="44"/>
-      <c r="L55" s="44"/>
-      <c r="M55" s="44"/>
-      <c r="N55" s="44"/>
-      <c r="O55" s="61"/>
-      <c r="P55" s="61"/>
-      <c r="Q55" s="61"/>
-      <c r="R55" s="61"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="48"/>
+      <c r="H55" s="48"/>
+      <c r="I55" s="48"/>
+      <c r="J55" s="48"/>
+      <c r="K55" s="48"/>
+      <c r="L55" s="48"/>
+      <c r="M55" s="48"/>
+      <c r="N55" s="48"/>
+      <c r="O55" s="44"/>
+      <c r="P55" s="44"/>
+      <c r="Q55" s="44"/>
+      <c r="R55" s="44"/>
       <c r="S55" s="26"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="25"/>
-      <c r="B56" s="49" t="s">
+      <c r="B56" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="C56" s="62"/>
-      <c r="D56" s="63"/>
-      <c r="E56" s="63"/>
-      <c r="F56" s="63"/>
-      <c r="G56" s="63"/>
-      <c r="H56" s="64"/>
-      <c r="I56" s="80"/>
-      <c r="J56" s="81"/>
-      <c r="K56" s="81"/>
-      <c r="L56" s="81"/>
-      <c r="M56" s="81"/>
-      <c r="N56" s="81"/>
-      <c r="O56" s="62"/>
-      <c r="P56" s="63"/>
-      <c r="Q56" s="63"/>
-      <c r="R56" s="64"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="51"/>
+      <c r="I56" s="55"/>
+      <c r="J56" s="56"/>
+      <c r="K56" s="56"/>
+      <c r="L56" s="56"/>
+      <c r="M56" s="56"/>
+      <c r="N56" s="56"/>
+      <c r="O56" s="49"/>
+      <c r="P56" s="50"/>
+      <c r="Q56" s="50"/>
+      <c r="R56" s="51"/>
       <c r="S56" s="26"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="25"/>
-      <c r="B57" s="50"/>
-      <c r="C57" s="77"/>
-      <c r="D57" s="78"/>
-      <c r="E57" s="78"/>
-      <c r="F57" s="78"/>
-      <c r="G57" s="78"/>
-      <c r="H57" s="79"/>
-      <c r="I57" s="82"/>
-      <c r="J57" s="83"/>
-      <c r="K57" s="83"/>
-      <c r="L57" s="83"/>
-      <c r="M57" s="83"/>
-      <c r="N57" s="83"/>
-      <c r="O57" s="77"/>
-      <c r="P57" s="78"/>
-      <c r="Q57" s="78"/>
-      <c r="R57" s="79"/>
+      <c r="B57" s="46"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="53"/>
+      <c r="F57" s="53"/>
+      <c r="G57" s="53"/>
+      <c r="H57" s="54"/>
+      <c r="I57" s="57"/>
+      <c r="J57" s="58"/>
+      <c r="K57" s="58"/>
+      <c r="L57" s="58"/>
+      <c r="M57" s="58"/>
+      <c r="N57" s="58"/>
+      <c r="O57" s="52"/>
+      <c r="P57" s="53"/>
+      <c r="Q57" s="53"/>
+      <c r="R57" s="54"/>
       <c r="S57" s="26"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
@@ -2605,23 +2571,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="O52:R52"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C52:N52"/>
-    <mergeCell ref="C56:H57"/>
-    <mergeCell ref="I56:N57"/>
-    <mergeCell ref="O56:R57"/>
-    <mergeCell ref="O53:R54"/>
-    <mergeCell ref="C55:N55"/>
-    <mergeCell ref="O55:R55"/>
-    <mergeCell ref="C53:H54"/>
-    <mergeCell ref="I53:N54"/>
-    <mergeCell ref="A3:S3"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="B44:R44"/>
     <mergeCell ref="C45:H45"/>
     <mergeCell ref="I45:N45"/>
     <mergeCell ref="O45:R45"/>
@@ -2638,6 +2587,23 @@
     <mergeCell ref="B48:B49"/>
     <mergeCell ref="O50:R51"/>
     <mergeCell ref="C48:H49"/>
+    <mergeCell ref="A3:S3"/>
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="B44:R44"/>
+    <mergeCell ref="O52:R52"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C52:N52"/>
+    <mergeCell ref="C56:H57"/>
+    <mergeCell ref="I56:N57"/>
+    <mergeCell ref="O56:R57"/>
+    <mergeCell ref="O53:R54"/>
+    <mergeCell ref="C55:N55"/>
+    <mergeCell ref="O55:R55"/>
+    <mergeCell ref="C53:H54"/>
+    <mergeCell ref="I53:N54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" scale="60" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -2645,7 +2611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2657,7 +2623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
